--- a/data/long_dif/P24_7-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_7-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 11,89</t>
+          <t>2,21; 12,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 16,58</t>
+          <t>3,88; 17,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 12,88</t>
+          <t>8,64; 29,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 19,67</t>
+          <t>4,71; 30,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 10,94</t>
+          <t>3,51; 14,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,66</t>
+          <t>8,64; 20,74</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 15,58</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 34,56</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 11,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 16,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 19,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 26,82</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>76,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>80,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>79,19%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>69,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58,2%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>82,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>77,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56,0%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,68; 91,24</t>
+          <t>76,98; 91,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,24; 84,32</t>
+          <t>66,92; 85,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,93; 87,06</t>
+          <t>47,68; 74,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>71,64; 85,57</t>
+          <t>38,43; 70,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,07; 88,18</t>
+          <t>70,68; 87,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,55; 83,56</t>
+          <t>70,41; 85,28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>59,39; 78,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43,37; 72,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>77,15; 87,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>71,74; 83,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56,85; 73,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44,37; 67,43</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 16,36</t>
+          <t>3,87; 16,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 25,32</t>
+          <t>8,29; 23,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 18,46</t>
+          <t>11,31; 33,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 13,49</t>
+          <t>19,35; 47,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,71</t>
+          <t>6,94; 19,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 17,0</t>
+          <t>3,38; 12,92</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14,53; 31,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 36,33</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 15,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 15,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15,2; 29,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 40,36</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 16,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 21,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 18,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 15,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,0%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,19%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>13,18%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,18%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,18; 85,04</t>
+          <t>4,54; 15,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,85; 87,82</t>
+          <t>5,86; 16,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,66; 77,31</t>
+          <t>3,35; 15,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,64; 81,73</t>
+          <t>1,79; 19,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>68,75; 79,65</t>
+          <t>9,6; 21,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,31; 83,18</t>
+          <t>8,57; 19,11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 12,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 14,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 16,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 15,61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 12,65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 13,98</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>69,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>75,81%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>70,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>74,09%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>79,23%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>74,47%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 21,83</t>
+          <t>69,24; 86,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,23</t>
+          <t>74,85; 88,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 22,46</t>
+          <t>67,96; 87,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 16,57</t>
+          <t>59,21; 90,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,39</t>
+          <t>60,34; 77,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,92</t>
+          <t>69,25; 81,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57,64; 75,6</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59,98; 79,48</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>68,21; 79,93</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>74,29; 83,55</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65,44; 80,32</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>64,56; 82,27</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24,72%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21,73%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,19%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 26,32</t>
+          <t>7,75; 20,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 15,48</t>
+          <t>3,77; 12,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 17,44</t>
+          <t>7,37; 22,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,23</t>
+          <t>4,33; 32,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 18,92</t>
+          <t>10,38; 23,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 14,75</t>
+          <t>6,65; 16,26</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16,71; 35,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,0; 31,21</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,25; 19,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 12,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 25,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 27,8</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>70,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>72,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>59,25; 78,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>63,48; 81,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,62; 77,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66,89; 77,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,76; 76,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,42; 77,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,43; 26,27</t>
+          <t>10,9; 25,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 28,47</t>
+          <t>6,98; 15,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,26; 20,92</t>
+          <t>7,51; 17,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,08; 19,36</t>
+          <t>6,23; 20,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,97; 21,78</t>
+          <t>8,91; 17,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,82</t>
+          <t>9,03; 16,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 16,08</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,43; 21,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 19,21</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 14,5</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 15,63</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 17,86</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>69,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>75,6%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>73,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>71,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>72,65%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67,37%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>70,34%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>70,71%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>74,09%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>67,97%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>71,84%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,12; 13,26</t>
+          <t>56,23; 78,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,94</t>
+          <t>65,35; 81,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,53; 17,6</t>
+          <t>57,63; 75,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,11</t>
+          <t>64,58; 81,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,93</t>
+          <t>64,99; 77,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,12; 14,67</t>
+          <t>67,19; 77,44</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>60,85; 73,54</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>60,93; 78,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64,12; 75,67</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>69,1; 78,43</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>61,92; 73,15</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>65,01; 77,19</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>72,28%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>71,37; 82,98</t>
+          <t>7,53; 30,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>70,03; 81,2</t>
+          <t>8,32; 24,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>66,17; 78,12</t>
+          <t>13,57; 31,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>62,27; 73,26</t>
+          <t>9,13; 22,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>71,29; 79,04</t>
+          <t>11,24; 20,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>67,58; 75,65</t>
+          <t>11,22; 19,29</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 26,3</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 25,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 21,77</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 19,39</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>15,95; 26,03</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 21,21</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>9,24; 18,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,99; 20,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>11,06; 20,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13,63; 23,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,06; 17,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>13,02; 20,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>15,22%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>12,05%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,73; 16,28</t>
+          <t>5,83; 15,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>11,52; 21,49</t>
+          <t>6,63; 14,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>12,86; 26,95</t>
+          <t>5,13; 13,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,23; 17,06</t>
+          <t>7,55; 20,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>10,46; 18,92</t>
+          <t>8,74; 17,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,71; 17,4</t>
+          <t>10,43; 17,99</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>11,02; 20,49</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>10,76; 25,34</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>8,41; 14,45</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 15,2</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 15,57</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 20,07</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>66,91%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>74,84%</t>
+          <t>68,72%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>68,14%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>61,7%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>65,04%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>74,53%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>72,33%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>65,22%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>66,97%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>68,33; 82,37</t>
+          <t>70,71; 83,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>60,12; 73,05</t>
+          <t>71,31; 82,1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>58,49; 74,74</t>
+          <t>60,94; 76,84</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>68,71; 80,04</t>
+          <t>59,16; 76,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>66,24; 76,54</t>
+          <t>66,53; 78,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>66,37; 75,26</t>
+          <t>62,28; 72,93</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>55,08; 68,26</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>55,8; 73,15</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>70,22; 78,24</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>68,13; 75,92</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>60,15; 70,58</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>60,14; 73,96</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>13,18%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>17,99%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>22,73%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>18,2%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>9,08; 19,85</t>
+          <t>9,28; 18,35</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>12,7; 24,13</t>
+          <t>9,59; 17,49</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>9,29; 20,73</t>
+          <t>15,99; 29,63</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,02</t>
+          <t>11,58; 26,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>10,68; 18,32</t>
+          <t>11,05; 20,08</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,78</t>
+          <t>14,07; 22,96</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 29,6</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>11,75; 26,12</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 18,16</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 18,95</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>18,83; 27,56</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 23,82</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5,84; 16,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>13,05; 28,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5,8; 14,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,68; 21,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>14,11%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>50,74; 81,72</t>
+          <t>5,65; 14,48</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>66,08; 80,66</t>
+          <t>11,8; 21,92</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>60,32; 77,65</t>
+          <t>9,07; 23,68</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>66,07; 80,76</t>
+          <t>6,67; 22,25</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>60,35; 77,02</t>
+          <t>11,31; 24,46</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>68,51; 79,11</t>
+          <t>8,45; 16,94</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 17,09</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 19,18</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>9,4; 17,62</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 18,07</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 18,07</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 17,83</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>76,44%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>66,63%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>67,61%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>74,69%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>61,71%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>67,45%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>72,17%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>70,7%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>61,99%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>62,64%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>8,94; 40,85</t>
+          <t>69,58; 82,68</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10,83; 23,09</t>
+          <t>59,36; 72,51</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>6,68; 16,79</t>
+          <t>53,17; 70,72</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,47</t>
+          <t>46,64; 68,44</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>9,21; 26,97</t>
+          <t>59,17; 74,66</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>12,34; 20,7</t>
+          <t>68,68; 80,46</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>52,36; 70,46</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>57,81; 75,56</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>66,79; 76,86</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>65,67; 74,66</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>56,12; 68,86</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>55,64; 69,72</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>27,77%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>14,59%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,47</t>
+          <t>8,96; 19,99</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,05</t>
+          <t>12,71; 24,18</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>12,16; 16,98</t>
+          <t>16,31; 30,53</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,44</t>
+          <t>20,22; 40,05</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>10,57; 13,88</t>
+          <t>9,81; 22,08</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>10,32; 12,95</t>
+          <t>8,74; 17,95</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 37,02</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>14,09; 28,66</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>10,74; 18,66</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 19,33</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 30,89</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 31,68</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>71,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>71,55; 79,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>71,77; 77,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>68,56; 74,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>71,18; 76,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>71,28; 76,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>72,5; 76,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>13,18%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>11,01; 18,8</t>
+          <t>4,51; 16,2</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>11,63; 17,01</t>
+          <t>5,7; 15,7</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,16</t>
+          <t>9,41; 27,36</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,15</t>
+          <t>5,45; 22,38</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>12,08; 16,35</t>
+          <t>14,69; 30,3</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>12,32; 15,72</t>
+          <t>6,26; 14,99</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 11,2</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 28,84</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 22,34</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 13,48</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 15,31</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 22,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>73,74%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>73,67%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>61,8%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>73,05%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>68,36%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>72,53%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>67,16%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>66,25%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>70,64%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>73,03%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>64,85%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>69,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>57,31; 82,03</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>65,66; 80,56</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>50,2; 72,22</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>60,07; 83,17</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>59,02; 75,49</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>63,97; 78,84</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>57,92; 76,38</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>50,18; 79,12</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>62,43; 76,23</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>67,56; 77,86</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>57,04; 71,29</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>59,37; 77,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 34,26</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 23,42</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 32,76</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 27,99</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 16,53</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>11,58; 25,59</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>18,37; 36,27</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 33,23</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 21,65</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 21,68</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>18,91; 32,38</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>12,04; 26,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 12,64</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 12,97</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 15,72</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 15,42</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 17,51</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 14,4</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>8,21; 11,95</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 17,33</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 14,06</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 13,04</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 12,94</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 15,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>76,48%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>75,46%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>67,36%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>68,21%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>73,46%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>65,78%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>66,57%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>73,91%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>74,44%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>66,55%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>67,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>72,85; 80,04</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>72,71; 78,7</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>62,38; 71,67</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>62,95; 73,57</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>68,14; 74,47</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>70,7; 75,75</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>62,28; 68,99</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>61,42; 70,74</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>71,54; 76,19</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>72,54; 76,37</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>63,84; 69,23</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>63,97; 70,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>24,35%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>19,99%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>13,72%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 17,05</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 16,24</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 23,97</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 24,16</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 16,25</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 16,41</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>21,31; 27,53</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 23,82</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 15,82</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 15,64</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>19,99; 24,72</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 22,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_7-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_7-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
